--- a/Testdata/TC_52.xlsx
+++ b/Testdata/TC_52.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>OBwAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAkUpK9awtjBrrZESpZhiTX67wUI3JssSaHCmdoW28p0CJFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIU3Sc5a7sJYc85tzpw51zF69zrwjUsSMS+ke6VqxSoZhDqh69HzvVLMz8rVR6V3bdS9doh/hCMcEA7EBnBR1rhm3l5pxvm8YZpXV1eVq3oljM7NmmVVzSeD/tiZkQCXPco4pg4ppVzu27lKNmq7wYBw7GKOFedeqTfuVdrEczoAG2CKz0lUacXMo4SxLuUe9wgTnBHBnLQ7g++qg9m1yqNKFZkr8IyyFXu+q+gKlAqu6WBbMvECYtes6k7Z2inXqxNrt7H9uLG1XalXH72fMKaEqI8ZH5Po0nMkYMxxMJfs1k69au1uP97aRuZaIpCVGcBGQ98dkUuPEbdNfJ9tZBFTX2DT4XDqzYxpITPHqwU9XIWDCM9nE4/7ZDM1RoOWEVCtSybERvthRByw34NUOiRXw0ibdTLvA3Yy8yK+6ODFxrKOGYmGc2GkzVht1Akpb/ok4sdzuGvigisAwuZRTJB5BzJj6njMgW+PxsS1z7DP8kwFJDoJows2xw45hDg2hYwr6ofYBYfjHuOewzIBKxh0FIVzEAm7t0Lf3QexWsU1iFR0j4KNxb6tMLxYll5EInmt8oLhUgPME/IVOBrPwqsh9RfjeMqcyJsSt9NKqNfikIhIzd2OGQ8D0CIDIQXLQQaDdxbwD4JwGYM6xPEC7B/5YEhm10FQAYCaMQ/PPN4O/TigqUWXoOgEDjUh1+kh0zUawgVTYfeQ9mhCryy9FlVkGIVX6Z6rCGmHHLjJnMTPVhHLxB2AJTe4ipGXIk657/lQI/LXkYMWHWM8I4Sv9QqFQSId7ouqYzd9H5nZEoFngnuDGrYFhaMsfyaW1ZA/sG2KRl3q3k2XINFhHAynEMKX8kB2FXBLIARH8Fs+phcAPfH47LCZqL4Gg9SB76RfxSEI1rmPFxKcGiUPQz3q+LFLVA7o0TPpkUI3dYd3otEKqA9RbSNMF5PFHFIx8xocPvZKUJwbjEdQ/ku2E8aURwuRLJCpSd/Gw+IplRtg/948ZxH5IIauY7EfU6cduvffzVXWOaYev7+GYRypDHh/Fmk9kQtj1iEiq8g8f29+Z5MzsWgj8oCSIKSec39rg5GF9u4DDsKSqMpxmHf4Voec4diHvoZD+TnPKssSGDXZxTJNHoSOIz/JDLboGhm0jY4bVBworKI1qjhhIAAmdGsnY2Tm6UV34JAuPe9jeh5D/U0DcBme5iVROiYRpkwcJy23SylqPRFKAlq1AXY+dpG5hEQTEszDCPsDsIa3ry9FNxBQmweYz/QKEr1PnMSyZsaachXVSbR9G5nM2Ep3EQ46iSwBJZG4ctWVZjQZDIkENgCn9dvY96aRyjlJXVuHg1vKuqUkO4nDbdg5JYaHyQRK0XfIQrSr2ULDpZ9WE4TyWpFm7PFoa6e2bdVrUObFGskTjwj2jS64OidGj14SxgNgaxgjwjwXvjzsN4z3yJR4UCKkifRFb8yd50P7SRaUqjRB3yKkSADF99yDJLtKmGIyBvuU4Mhf5AjVUfuhA3S3P/73zW+ev3rx+e3HT998+cP//uNXr/75s5tnP4KP27/+7eaTX6pjKmI0wVOfSIUmrZ0dq74FfpaCkDCuKVtFN3a4hJ2eyg4xXSM96chFu9trH/RbMomkwIRdJVxTDFGLMM6WY3UIuZG8UjPxBEViT5KkpNcFbC6B22KouSRF6jz+LkZli9cvP3/98s93cmuDZZ1IdXd3u1ytvbVRgfGwukKXNipiWFSzQDKKbpWt7XKtliNeokEjmKih9U/t1HNtMX1atbpVTRO4mzryOqJllJY0wefmEp8CtVXzkLpAfp0gpeNPIERStAqF3EK76Jc/efOXpwUqbV0NKUoB5WSRF5uZyUKKPhxNjPHweNTuGpPuWPhJhsvRKeHfQKx3T+Op4FSUxth/xyBUvKIYJRgPSkZ4ZhDszIwFRGIuDgvOtg6qNnqgyGUtD6IwnqsbyTFk0DWUaTZZy7Em10ictOdK0slQa8iVrjd//2Idgz5IJ2v30geBPAwVMAqUw+uo/exfr7766NWLF7fPf37z1Q8KEvQ+6ZwMfg7RlF+mbg8pT9ebJQg6GUtjXljfy9UXDRRjxlHoUc7s6iM5YegVAtaqkCZ/o14AJU8KlvYC+BIEvYdZ95rrwLYPkVkEgJ5zDNU2zAaxFKByeGbX//z2d7e//uL20+dvPvrTzcd/vPnk09cvf//m2R9U1N0+fX7702c6yy8XAqmLGO9U52fI9wLHENFoiNptfP3hLwwacgNaDiOWGenrDz/LCROKyuYkkwx9XKpIUYUV0jyz4DNyqqQ6FPhSFtUAtEUJq6cUuoiFc8/JNnm/LESJuJOIb/Um5ZgRI4Ru6ttwkiJxxnxfPs2iSurRY6tWrWms0kYcYYpZzvQHfjiFJiNByGl8iaTA9c0MGa3c76A/bDX7GYlSYhi5MLxb4klBfKCkpRQlpceSVeJqOQhgofFzYl88oKyQraJSybk0ZuqXiLOmK9Lf+kG+QIHacRSphojqx+1xPIdmOHmyuhsv3/Fy/e+h6lXzHXG27nWKeFjnsFAIi2gBkHiZmjRKpakeE48eqp09FKbJloArvP2BOfT7teq0LqGvjEyRd7pRFEZrk0+GScgG0ElDRjEzi6c08k5V1+1md5UAkoSXfqhxT58w7BCf8M0ed82MexBePpgX7n5T1h4b+q425majR2qWTED+hVs4yv/7wK2crRlF0FiJ17CNX6STaXUEQ+6G2qijSEYxAcLu+sl434sYfyIygf5SkNMUcqo61Cdi4FIfcn1q13YUAAjMvHSzoGYSulz9nSH0+17gbTgWWkl8F4WALedz1cL1NvMUUVoOyTU0mDkJkBSn34eyoZ5LNpGmHBZyacovXvaYdz7jmyr2eIqJS6ZW2ZmSWnnLtXbKu4TUy9Uq/I+dWs2ytsW7oBYOmcMjVxtuYiYXlv39z/4fVBUE7jgcAAA=</t>
+          <t>MR4AAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoFQu1xKsiSMN6BIyiFKSoJI1VZeiuHuUJpqOcvszEriWwq0SJGmKIrCKdIr+pSiQF2jTYDU7uVfAkt2n/oLPXPZG0nFWtUQ4J1zmzNnznWI3r2ahtYFiTmN2MNaY82pWYT5UUDZ6cNaIib1xmbtXQ91r3wSHuIYT4kAYgu4GN+54vRh7UyI2Y5tX15erl0216L41HYdp2E/GfSH/hmZ4jplXGDmk1rGFbydq+ahdjAdEIEDLLDmfFjrDXtrbUL9DsAGmOFTEq/tJpwywnmXCSoo4ZIzJliQdmfwXX0wz13bXGsgewmeU+4mNAw0XYlSww0dbEtGdEo813GdurNVd9dHzvZOc2PH3VjbaDTeTxkzQtTHXAxJfEF9BRgKPJ0pdmfLXXe2mxvuBrJXEoGs3AAeOgiDI3JBOQnaJAx5JYvY5gJbvoBTVzOmg+wCrxF0fxUexXh2NqIiJFXZ96KY+GCoe+29Ty4PYmO/0awP2NEZjcW8g+eVZR1zEh/MpDWqsXqoEzHRCkksjmdwqSSAOweEJ+KEIPsWZM7UodyHb8oSEngTHPIiUwmJHkfxOZ9hn+xDwNpSxiULIxyAZwnKBfV5LmAJgw7jaAYiYffdKAz2QKxRcQUiE91jYGO5724UnS9KLyORcgLlDnCpUyxS8iU4Gp5FlwcsnA+TMfdjOiZBZzelXolDMvQMdzvhIpqCFjkIaVgBMhi8M4d/EG2LGNQhPp3i8DAEQ3KvCYJKANRKRDShoh2FyZRlFl2AosdwqBG5yg6ZrdEBXDCTdo9Yj6X02tIrUWWGo+gy23MZoexQALe4n/rZMmKRuAOw9AaXMepS5Cn3aAjFoHgdBWjZMYZnhIiVXqExSOa9PVlevFYYIjtfIvBMcG9Qw3OgQtTV38hxdtQfbJuhUZcFt9OlSLSfTA/GEMIX6kBeA3ALIARHCHdDzM4B+piKs/1WqvoKDNIHvpV+GYcgWGchnitwZpQiDPWYHyYB0TmgxybKI6Vu+g5vRaMlUB+i2kOYzUfzGeRcTncEfDysQRXe4SKGOl/z/ChhIp7LZIFsQ/o2Hp6MmdoAh3fmmcTkgwTai/lewvx2FNx9t0Bb55hRcXcNoyTWGfDuLMp6MhcmvENkVlF5/s78fpUz8bgS+ZSRacSof3drg5Gl9sE9DsLTqCpw2Lf4VodMcBJCAyOg/JzmlWUBjFr8fJGmCELHcZhmBk+2hxz6Qz+YrvlQWGUPtOZHUwmwoS17PER2kV52Bz7pstM+ZqcJ1N8sABfhWV6SpWMUY8blcbJyu5CiVhOhNKB1G+AVYxfZC0g0ItNZFONwANage+ZSTAMBtXmAxZlZQaIPiZ9a1s5ZM66yOqm2byNTGVvrLsPBJJEFoCKSV67bz5wmhyGZwAbgtGEbh3Qc65yT1rVVOLilvFtKs5M8XMXOKTU8jCBQir5D5rIvzRcGrvy0kSK018o04w2P1rfcDafpQpmXa6ROfERwaHXB1QWxeuyCcDEFth3riHAawBfF4Y71HhkTCiVCmchcdGXuIh/aS7OgUqUF+pYhZQIovqcUkuwyYYbJGbwTguNwXiDUR+1HPtDd/Pjf1795/urF5zcfP33z5Q//+49fvfrnz66f/Qg+bv76t+tPfqmPqYnRCI9DohQa7W5tOc118LMMhKRxbdUqBokvFOzkRHWI2RqZkUYt2t1e+1F/VyWRDJiy64Rry2lpHiX5cqgPoTZSV2qnnqBJvFGalMy6hC0kcE9OLxekTF3E38aobfH65eevX/75Vm5jsLwTaWxvb9Qb7lsbFddpNJboskZFToV6FjAzZ2O97mzUXbdAvECDjmB0htY/s1Mv8JoNZ9txm04jS+BB5siriBZRRtIIn9oLfBrU1s1D5gLFdYpUjj+CEMnQOhQKC+OiX/7kzV+elqiMdQ2kLAWUU0VebmanCyV6/2hkDQ+Oj9pda9QdSj/JcQU6LfwbiM3uWTyVnIqxBIfvWITJ5xKrBuNBzYomFsH+mTWHSCzEYcnZVkH1RvcUuajlozhKZvpGCgw5dAVllk1WcqzINQqn7LmUdHLUCnKt6/Xfv1jFYA7Syds972iwa01Z5pcKhkoYDSrgTdR+9q9XX3306sWLm+c/v/7qByUJZp9sTgY/h2gqLjO3h5Rn6s0CBD0eKmOeO98r1BcDlGPGYUSZ4F5jU00YZoWAtSGlqf9RbwolTwlW9gL4AgS9h3n3SpjA9vaRXQaAnjMM1TbKB7EMoHN4btf//PZ3N7/+4ubT528++tP1x3+8/uTT1y9//+bZH3TU3Tx9fvPTZybLLxYCpYsc73TnZ6n3At+S0WjJ2m19/eEvLBYJC1oOK1EZ6esPPysIk4qq5iSXDH1cpkhZhSXSIrPkswqqZDqU+DIW3QC0ZQlrZhSmiEUz6uebvF+XomTcKcS3eqN6wokVQTf1bThJmThnviufYdEl9fCB4zZcg9XayCOMMS+Y/lEYjaHJSBFqGl8gKXF9M0NOq/Z71D/YbfVzEq3EQRzA8O7IJwX5gXo8bSpT9ypAAAvNnp+E8tFkiWwZhdKvQuqyzevDpBXIlLd6eC9RoHYSx7oJYublepjMoAFOn6lux6u3u0LPu6/702IXnK97nTIe1gUsFL8yWgIUXqUjg9KpqcflQ4duYfelafIl4ErvfWAO8zitu6sL6CVjW+aabhxH8cqEk2NSsgF0z5BF7NziGY0tt9SddpDfVQpIk1z2oUc8c8KoQ0IiKr/cptyD6OLevHD3VVl7/CAMjDGrjRuZWXIBxedr6ShVlWnFMbRN8q2r8ntzn7LzXrXTQxStbzfJeGtzPfA31ze2/QcN3MSbD8ZuA+OxD42jEiqnTylCTi5ydqu2CTSLZfZ8uD6CcbuiNG1gxShnUbCUCkiT2LM12qMxF09kijJfGnKSQU506/xE6qc/1PrEc7c0AAjs4mZ2Ses0vwj9S0cU9umUVpxXnTQJlYWAG8xmureseqFQ8/bJFXS+BQmQrcffh3qm33GqSNNRBUk+409lDZNxZXF2ynwIeOlY9+PuBtCX3Z9b/WxAw/9DAdV53VdEj3F6eiaq3qu7DXG6Sdy6O/H9ugzaOlTjcT3Ak+2G40yawYYr33uNcKgOlFxW3ETWFMphrqjOZy/88Ov9D4QJBcYxHgAA</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM,yyyy"/>
     <numFmt numFmtId="164" formatCode="MM,yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -518,7 +518,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -671,4 +671,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>29</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{509180FC-6B01-40A3-9CFC-FDFE3B22609F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_52.xlsx
+++ b/Testdata/TC_52.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>MR4AAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoFQu1xKsiSMN6BIyiFKSoJI1VZeiuHuUJpqOcvszEriWwq0SJGmKIrCKdIr+pSiQF2jTYDU7uVfAkt2n/oLPXPZG0nFWtUQ4J1zmzNnznWI3r2ahtYFiTmN2MNaY82pWYT5UUDZ6cNaIib1xmbtXQ91r3wSHuIYT4kAYgu4GN+54vRh7UyI2Y5tX15erl0216L41HYdp2E/GfSH/hmZ4jplXGDmk1rGFbydq+ahdjAdEIEDLLDmfFjrDXtrbUL9DsAGmOFTEq/tJpwywnmXCSoo4ZIzJliQdmfwXX0wz13bXGsgewmeU+4mNAw0XYlSww0dbEtGdEo813GdurNVd9dHzvZOc2PH3VjbaDTeTxkzQtTHXAxJfEF9BRgKPJ0pdmfLXXe2mxvuBrJXEoGs3AAeOgiDI3JBOQnaJAx5JYvY5gJbvoBTVzOmg+wCrxF0fxUexXh2NqIiJFXZ96KY+GCoe+29Ty4PYmO/0awP2NEZjcW8g+eVZR1zEh/MpDWqsXqoEzHRCkksjmdwqSSAOweEJ+KEIPsWZM7UodyHb8oSEngTHPIiUwmJHkfxOZ9hn+xDwNpSxiULIxyAZwnKBfV5LmAJgw7jaAYiYffdKAz2QKxRcQUiE91jYGO5724UnS9KLyORcgLlDnCpUyxS8iU4Gp5FlwcsnA+TMfdjOiZBZzelXolDMvQMdzvhIpqCFjkIaVgBMhi8M4d/EG2LGNQhPp3i8DAEQ3KvCYJKANRKRDShoh2FyZRlFl2AosdwqBG5yg6ZrdEBXDCTdo9Yj6X02tIrUWWGo+gy23MZoexQALe4n/rZMmKRuAOw9AaXMepS5Cn3aAjFoHgdBWjZMYZnhIiVXqExSOa9PVlevFYYIjtfIvBMcG9Qw3OgQtTV38hxdtQfbJuhUZcFt9OlSLSfTA/GEMIX6kBeA3ALIARHCHdDzM4B+piKs/1WqvoKDNIHvpV+GYcgWGchnitwZpQiDPWYHyYB0TmgxybKI6Vu+g5vRaMlUB+i2kOYzUfzGeRcTncEfDysQRXe4SKGOl/z/ChhIp7LZIFsQ/o2Hp6MmdoAh3fmmcTkgwTai/lewvx2FNx9t0Bb55hRcXcNoyTWGfDuLMp6MhcmvENkVlF5/s78fpUz8bgS+ZSRacSof3drg5Gl9sE9DsLTqCpw2Lf4VodMcBJCAyOg/JzmlWUBjFr8fJGmCELHcZhmBk+2hxz6Qz+YrvlQWGUPtOZHUwmwoS17PER2kV52Bz7pstM+ZqcJ1N8sABfhWV6SpWMUY8blcbJyu5CiVhOhNKB1G+AVYxfZC0g0ItNZFONwANage+ZSTAMBtXmAxZlZQaIPiZ9a1s5ZM66yOqm2byNTGVvrLsPBJJEFoCKSV67bz5wmhyGZwAbgtGEbh3Qc65yT1rVVOLilvFtKs5M8XMXOKTU8jCBQir5D5rIvzRcGrvy0kSK018o04w2P1rfcDafpQpmXa6ROfERwaHXB1QWxeuyCcDEFth3riHAawBfF4Y71HhkTCiVCmchcdGXuIh/aS7OgUqUF+pYhZQIovqcUkuwyYYbJGbwTguNwXiDUR+1HPtDd/Pjf1795/urF5zcfP33z5Q//+49fvfrnz66f/Qg+bv76t+tPfqmPqYnRCI9DohQa7W5tOc118LMMhKRxbdUqBokvFOzkRHWI2RqZkUYt2t1e+1F/VyWRDJiy64Rry2lpHiX5cqgPoTZSV2qnnqBJvFGalMy6hC0kcE9OLxekTF3E38aobfH65eevX/75Vm5jsLwTaWxvb9Qb7lsbFddpNJboskZFToV6FjAzZ2O97mzUXbdAvECDjmB0htY/s1Mv8JoNZ9txm04jS+BB5siriBZRRtIIn9oLfBrU1s1D5gLFdYpUjj+CEMnQOhQKC+OiX/7kzV+elqiMdQ2kLAWUU0VebmanCyV6/2hkDQ+Oj9pda9QdSj/JcQU6LfwbiM3uWTyVnIqxBIfvWITJ5xKrBuNBzYomFsH+mTWHSCzEYcnZVkH1RvcUuajlozhKZvpGCgw5dAVllk1WcqzINQqn7LmUdHLUCnKt6/Xfv1jFYA7Syds972iwa01Z5pcKhkoYDSrgTdR+9q9XX3306sWLm+c/v/7qByUJZp9sTgY/h2gqLjO3h5Rn6s0CBD0eKmOeO98r1BcDlGPGYUSZ4F5jU00YZoWAtSGlqf9RbwolTwlW9gL4AgS9h3n3SpjA9vaRXQaAnjMM1TbKB7EMoHN4btf//PZ3N7/+4ubT528++tP1x3+8/uTT1y9//+bZH3TU3Tx9fvPTZybLLxYCpYsc73TnZ6n3At+S0WjJ2m19/eEvLBYJC1oOK1EZ6esPPysIk4qq5iSXDH1cpkhZhSXSIrPkswqqZDqU+DIW3QC0ZQlrZhSmiEUz6uebvF+XomTcKcS3eqN6wokVQTf1bThJmThnviufYdEl9fCB4zZcg9XayCOMMS+Y/lEYjaHJSBFqGl8gKXF9M0NOq/Z71D/YbfVzEq3EQRzA8O7IJwX5gXo8bSpT9ypAAAvNnp+E8tFkiWwZhdKvQuqyzevDpBXIlLd6eC9RoHYSx7oJYublepjMoAFOn6lux6u3u0LPu6/702IXnK97nTIe1gUsFL8yWgIUXqUjg9KpqcflQ4duYfelafIl4ErvfWAO8zitu6sL6CVjW+aabhxH8cqEk2NSsgF0z5BF7NziGY0tt9SddpDfVQpIk1z2oUc8c8KoQ0IiKr/cptyD6OLevHD3VVl7/CAMjDGrjRuZWXIBxedr6ShVlWnFMbRN8q2r8ntzn7LzXrXTQxStbzfJeGtzPfA31ze2/QcN3MSbD8ZuA+OxD42jEiqnTylCTi5ydqu2CTSLZfZ8uD6CcbuiNG1gxShnUbCUCkiT2LM12qMxF09kijJfGnKSQU506/xE6qc/1PrEc7c0AAjs4mZ2Ses0vwj9S0cU9umUVpxXnTQJlYWAG8xmureseqFQ8/bJFXS+BQmQrcffh3qm33GqSNNRBUk+409lDZNxZXF2ynwIeOlY9+PuBtCX3Z9b/WxAw/9DAdV53VdEj3F6eiaq3qu7DXG6Sdy6O/H9ugzaOlTjcT3Ak+2G40yawYYr33uNcKgOlFxW3ETWFMphrqjOZy/88Ov9D4QJBcYxHgAA</t>
+          <t>OBwAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAkUpK9awtjBrrZESpZhiTX67wUI3JssSaHCmdoW28p0CJFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIU3Sc5a7sJYc85tzpw51zF69zrwjUsSMS+ke6VqxSoZhDqh69HzvVLMz8rVR6V3bdS9doh/hCMcEA7EBnBR1rhm3l5pxvm8YZpXV1eVq3oljM7NmmVVzSeD/tiZkQCXPco4pg4ppVzu27lKNmq7wYBw7GKOFedeqTfuVdrEczoAG2CKz0lUacXMo4SxLuUe9wgTnBHBnLQ7g++qg9m1yqNKFZkr8IyyFXu+q+gKlAqu6WBbMvECYtes6k7Z2inXqxNrt7H9uLG1XalXH72fMKaEqI8ZH5Po0nMkYMxxMJfs1k69au1uP97aRuZaIpCVGcBGQ98dkUuPEbdNfJ9tZBFTX2DT4XDqzYxpITPHqwU9XIWDCM9nE4/7ZDM1RoOWEVCtSybERvthRByw34NUOiRXw0ibdTLvA3Yy8yK+6ODFxrKOGYmGc2GkzVht1Akpb/ok4sdzuGvigisAwuZRTJB5BzJj6njMgW+PxsS1z7DP8kwFJDoJows2xw45hDg2hYwr6ofYBYfjHuOewzIBKxh0FIVzEAm7t0Lf3QexWsU1iFR0j4KNxb6tMLxYll5EInmt8oLhUgPME/IVOBrPwqsh9RfjeMqcyJsSt9NKqNfikIhIzd2OGQ8D0CIDIQXLQQaDdxbwD4JwGYM6xPEC7B/5YEhm10FQAYCaMQ/PPN4O/TigqUWXoOgEDjUh1+kh0zUawgVTYfeQ9mhCryy9FlVkGIVX6Z6rCGmHHLjJnMTPVhHLxB2AJTe4ipGXIk657/lQI/LXkYMWHWM8I4Sv9QqFQSId7ouqYzd9H5nZEoFngnuDGrYFhaMsfyaW1ZA/sG2KRl3q3k2XINFhHAynEMKX8kB2FXBLIARH8Fs+phcAPfH47LCZqL4Gg9SB76RfxSEI1rmPFxKcGiUPQz3q+LFLVA7o0TPpkUI3dYd3otEKqA9RbSNMF5PFHFIx8xocPvZKUJwbjEdQ/ku2E8aURwuRLJCpSd/Gw+IplRtg/948ZxH5IIauY7EfU6cduvffzVXWOaYev7+GYRypDHh/Fmk9kQtj1iEiq8g8f29+Z5MzsWgj8oCSIKSec39rg5GF9u4DDsKSqMpxmHf4Voec4diHvoZD+TnPKssSGDXZxTJNHoSOIz/JDLboGhm0jY4bVBworKI1qjhhIAAmdGsnY2Tm6UV34JAuPe9jeh5D/U0DcBme5iVROiYRpkwcJy23SylqPRFKAlq1AXY+dpG5hEQTEszDCPsDsIa3ry9FNxBQmweYz/QKEr1PnMSyZsaachXVSbR9G5nM2Ep3EQ46iSwBJZG4ctWVZjQZDIkENgCn9dvY96aRyjlJXVuHg1vKuqUkO4nDbdg5JYaHyQRK0XfIQrSr2ULDpZ9WE4TyWpFm7PFoa6e2bdVrUObFGskTjwj2jS64OidGj14SxgNgaxgjwjwXvjzsN4z3yJR4UCKkifRFb8yd50P7SRaUqjRB3yKkSADF99yDJLtKmGIyBvuU4Mhf5AjVUfuhA3S3P/73zW+ev3rx+e3HT998+cP//uNXr/75s5tnP4KP27/+7eaTX6pjKmI0wVOfSIUmrZ0dq74FfpaCkDCuKVtFN3a4hJ2eyg4xXSM96chFu9trH/RbMomkwIRdJVxTDFGLMM6WY3UIuZG8UjPxBEViT5KkpNcFbC6B22KouSRF6jz+LkZli9cvP3/98s93cmuDZZ1IdXd3u1ytvbVRgfGwukKXNipiWFSzQDKKbpWt7XKtliNeokEjmKih9U/t1HNtMX1atbpVTRO4mzryOqJllJY0wefmEp8CtVXzkLpAfp0gpeNPIERStAqF3EK76Jc/efOXpwUqbV0NKUoB5WSRF5uZyUKKPhxNjPHweNTuGpPuWPhJhsvRKeHfQKx3T+Op4FSUxth/xyBUvKIYJRgPSkZ4ZhDszIwFRGIuDgvOtg6qNnqgyGUtD6IwnqsbyTFk0DWUaTZZy7Em10ictOdK0slQa8iVrjd//2Idgz5IJ2v30geBPAwVMAqUw+uo/exfr7766NWLF7fPf37z1Q8KEvQ+6ZwMfg7RlF+mbg8pT9ebJQg6GUtjXljfy9UXDRRjxlHoUc7s6iM5YegVAtaqkCZ/o14AJU8KlvYC+BIEvYdZ95rrwLYPkVkEgJ5zDNU2zAaxFKByeGbX//z2d7e//uL20+dvPvrTzcd/vPnk09cvf//m2R9U1N0+fX7702c6yy8XAqmLGO9U52fI9wLHENFoiNptfP3hLwwacgNaDiOWGenrDz/LCROKyuYkkwx9XKpIUYUV0jyz4DNyqqQ6FPhSFtUAtEUJq6cUuoiFc8/JNnm/LESJuJOIb/Um5ZgRI4Ru6ttwkiJxxnxfPs2iSurRY6tWrWms0kYcYYpZzvQHfjiFJiNByGl8iaTA9c0MGa3c76A/bDX7GYlSYhi5MLxb4klBfKCkpRQlpceSVeJqOQhgofFzYl88oKyQraJSybk0ZuqXiLOmK9Lf+kG+QIHacRSphojqx+1xPIdmOHmyuhsv3/Fy/e+h6lXzHXG27nWKeFjnsFAIi2gBkHiZmjRKpakeE48eqp09FKbJloArvP2BOfT7teq0LqGvjEyRd7pRFEZrk0+GScgG0ElDRjEzi6c08k5V1+1md5UAkoSXfqhxT58w7BCf8M0ed82MexBePpgX7n5T1h4b+q425majR2qWTED+hVs4yv/7wK2crRlF0FiJ17CNX6STaXUEQ+6G2qijSEYxAcLu+sl434sYfyIygf5SkNMUcqo61Cdi4FIfcn1q13YUAAjMvHSzoGYSulz9nSH0+17gbTgWWkl8F4WALedz1cL1NvMUUVoOyTU0mDkJkBSn34eyoZ5LNpGmHBZyacovXvaYdz7jmyr2eIqJS6ZW2ZmSWnnLtXbKu4TUy9Uq/I+dWs2ytsW7oBYOmcMjVxtuYiYXlv39z/4fVBUE7jgcAAA=</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM,yyyy"/>
     <numFmt numFmtId="164" formatCode="MM,yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -518,7 +518,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -671,37 +671,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>29</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{509180FC-6B01-40A3-9CFC-FDFE3B22609F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>